--- a/Marketing/wvu.roomme.xlsx
+++ b/Marketing/wvu.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/wvu.roomme.xlsx
+++ b/Marketing/wvu.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/wvu.roomme.xlsx
+++ b/Marketing/wvu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B633"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eli_youell</t>
+          <t>west_cb</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>diego.collecting</t>
+          <t>roman.concordia</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lorenatz572</t>
+          <t>alana.marrie</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>petronillecorleis</t>
+          <t>gradyros3</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mick_scaf</t>
+          <t>carolallenonwqnyuwtt</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hannaholszewski</t>
+          <t>irelinurban</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aquig</t>
+          <t>edwardjohnsonamhtejtlvx</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>michaelwalkerxpnwphdlkg</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aliii_ellerrr</t>
+          <t>mattgrauert07</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>papermarkup</t>
+          <t>jethrohicktown</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tysommerrr</t>
+          <t>grace_schumacher</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>oye_ayan_00ubw</t>
+          <t>alyssa.falzarano</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>chudson2004</t>
+          <t>kgonyer18</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2wvu24u</t>
+          <t>tommymagee12</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>greg_foley69</t>
+          <t>elliesayre_</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>courtneyyeargers</t>
+          <t>alexa.pellino</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ayoisthatdrizzy</t>
+          <t>leiliayoh</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2128_varvara</t>
+          <t>ashmit.b</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ronaldlewiswjidracggc</t>
+          <t>lextuccillo</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>edengerdes</t>
+          <t>fa_stinebiser</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>d88uuww8kberiaelizabeth</t>
+          <t>linjiahua0723</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>kathryn.williams99</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bavacinamici</t>
+          <t>ellagarber1</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>avarosen__</t>
+          <t>maya.nonnenberg</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>alimuddin3476yjm</t>
+          <t>dorothyphillipsjyguwqqpbx</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>loveelyssaa_</t>
+          <t>ammyczene</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>karmelitta746</t>
+          <t>scott_mcclellan_2410</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>donaldevansvnvrcgccsq</t>
+          <t>eli_youell</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>owen_fox02</t>
+          <t>natalief365</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>marybakerhoqppatgha</t>
+          <t>olivia_weida</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>edwardjohnsonamhtejtlvx</t>
+          <t>fe.vronia5049</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>stevenjohnsonayjwpxnzfv</t>
+          <t>mollee.mccann</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>madie.1945</t>
+          <t>gabby_seinwels</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>brok_c_english</t>
+          <t>samocorner_13qzu</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>erikbirddd</t>
+          <t>adkinson.michael</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>raeghan.frashier</t>
+          <t>maggiewoodd_</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mollee.mccann</t>
+          <t>dawnreen67</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>daramiesjulespaddio</t>
+          <t>kaylasowardsss</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mrdiegoac</t>
+          <t>emmie.herman</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>patriciawhitepjcoskmwxj</t>
+          <t>maxbrock</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>maggierrose</t>
+          <t>sarahhopeel</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hbeck2335</t>
+          <t>dylanmigliozzi</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ruthmartinyhtuhqtkjj</t>
+          <t>mylesjkok_17</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>stfrfhjute</t>
+          <t>donaldperezmduypcnmwc</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_.katherinewest._</t>
+          <t>paulmoorecwobxdgwkr</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>avadattilo</t>
+          <t>ella.dunn2305</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>devin.pratt05</t>
+          <t>leo.gerunda</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>david.hill_97</t>
+          <t>stormiheadley</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mikebrown2063</t>
+          <t>joecristoforo</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>maya.nonnenberg</t>
+          <t>2kvqj3ebmborisovalarisa</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>charlesleegzdxltdhrf</t>
+          <t>jacksonmooney19</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sean._rowe</t>
+          <t>kcrow_25</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>grace_schumacher</t>
+          <t>evan_west3</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ellelyons14</t>
+          <t>luca_a_liesfeld</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>alexis.re11</t>
+          <t>m.cozzie</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>rdell.10</t>
+          <t>pipermasseyy</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jaydenbmoore</t>
+          <t>gus_lindberger</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>steph_nolan4</t>
+          <t>d88uuww8kberiaelizabeth</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>megannsheehann</t>
+          <t>kaelynn_loften</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tori.pratt19</t>
+          <t>danaaseasons</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>g.minney</t>
+          <t>keziameltzer</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>zoee_422</t>
+          <t>ddepinto04</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>diptipriya45utn</t>
+          <t>david.hill_97</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>olivia___martinez</t>
+          <t>tina.h.atkins</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>marcellaxfrancesca</t>
+          <t>gteachelf</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ellioatt8601</t>
+          <t>reagansurface</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>gia.hart</t>
+          <t>chmiller28</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>gabby_seinwels</t>
+          <t>lukesyrett_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>periboeabonaly</t>
+          <t>tori.pratt19</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>katherineg_7510</t>
+          <t>mattduffy113</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>rymax011</t>
+          <t>amelia_s217</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>caseyhavens_</t>
+          <t>eva._nystrom</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>fe.vronia5049</t>
+          <t>anna.hazelton</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>giannagriffiss</t>
+          <t>ryan_coop_18</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bypilr721gladkovapelageya</t>
+          <t>brie_decarvalho00</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>brivelezz</t>
+          <t>jabollhorst</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>alexisanderson_12</t>
+          <t>haruomimancinelli</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>olivia_donoghue04</t>
+          <t>snezhana_4775</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>logan.marsh._</t>
+          <t>alexa_rolph</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_john577885</t>
+          <t>teejdipi</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mauriehaddad</t>
+          <t>ta_isia2155</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>maria.n7905</t>
+          <t>malachiwebb04</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>riplowgun</t>
+          <t>_saralyon</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>beachlove92937</t>
+          <t>loveelyssaa_</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>brie_decarvalho00</t>
+          <t>nataliestasiowski</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>_patrick.morse</t>
+          <t>owen_curtis_32</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kobrown30</t>
+          <t>kathryn_mcgonagle</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>_alissasilva_</t>
+          <t>antonio.russell_</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>lbish3</t>
+          <t>brok_c_english</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>oswandellauren</t>
+          <t>matthewaltenburger</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>helenedwardsxcaymejabq</t>
+          <t>abby.bittner_</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>abbychildersss</t>
+          <t>5975.martina</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>tina.h.atkins</t>
+          <t>nifffffty</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>amberfendleyy</t>
+          <t>noahhgorospe</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ca7aldo</t>
+          <t>kimbecozy</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jrsahoomdb</t>
+          <t>jackg_2005</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sshaner11</t>
+          <t>wvusic</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>stevencollinssnadaemkwm</t>
+          <t>katringparillaud</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>m.addiemm</t>
+          <t>christopherclarkoinqtluxdu</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>stella_c_dutton</t>
+          <t>ineke.sharna</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>charlesrobinsonqhbqlxcnjp</t>
+          <t>ian.mcl</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>nancyallenuxdaslqvel</t>
+          <t>_alissasilva_</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aj_orlando7</t>
+          <t>landonranson_</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>caroljacksonrrcbggfsyl</t>
+          <t>maddie_bunis</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>feddufirdous928cpa</t>
+          <t>patriciawhitepjcoskmwxj</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>nickkeener_</t>
+          <t>nadiapollinger</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>zit9069</t>
+          <t>caroljacksonrrcbggfsyl</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>donaldthomasxegpepxbov</t>
+          <t>parkrwhite</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>alexa.rudolphh</t>
+          <t>eliyoue1</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ronaldthompsonupskftfpnr</t>
+          <t>kaysharon664</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ari_davidson19</t>
+          <t>cheaters_gonnacheat2</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jackson_underkoffler</t>
+          <t>dylan.grosseto15</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>pandasabo</t>
+          <t>rostislava9925</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ekennedy.05</t>
+          <t>marebearmama</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>peterrtarsnane</t>
+          <t>ax_strongarm</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>m_a_h_e_s_h_m_gmgd</t>
+          <t>__grey.butterfly</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>alex__ferrante</t>
+          <t>maddoxmadia</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ths_carly_kerry</t>
+          <t>zi.ta8779</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>the_max144</t>
+          <t>zack.miller44</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>michaeledwardsmfxwxjysee</t>
+          <t>aelopata</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>angelina__anderson</t>
+          <t>christa.m.lutz</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>wyatt_meadows10</t>
+          <t>carolwilsonddshwjzksa</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>amy.casterline</t>
+          <t>lacijcarlson</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sydneyrudisill04</t>
+          <t>2wvu24u</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>gus_lindberger</t>
+          <t>ge_ra5818</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>keya_1211wqa</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>elliesayre_</t>
+          <t>isaac_cayton222</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>krishna_rider_90rsb</t>
+          <t>bryce.schell16</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>holbert.jacob</t>
+          <t>hollyngrace078</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>akordasoares</t>
+          <t>kaelynrichmond</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>markharrisknbexmaztm</t>
+          <t>smith.brenda_</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ptromblee_50</t>
+          <t>helennelsonartnlkanpg</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>tim.fry.338</t>
+          <t>abi_guthrie</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>patriciarobertsncjhjcydve</t>
+          <t>brianwilsonlwxtaupriz</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>mariamooreleztesvmej</t>
+          <t>ellachildress_</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lundgren_lindsey</t>
+          <t>ray.c_9th</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>catelopata</t>
+          <t>perrier40</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>alliee.daniels</t>
+          <t>meredithpollock</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jessicasnyder7536</t>
+          <t>_miawalls_</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>briangonzalezirvffgvipy</t>
+          <t>brianscholtenn</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jasonclayton444</t>
+          <t>matt._mcgin</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dylanmigliozzi</t>
+          <t>mckenzie__robertson</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>stevenhillnnxwgbppvi</t>
+          <t>billwelds</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>emmacbates18</t>
+          <t>jyd.markstar</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>meg.garrtt_</t>
+          <t>its.greenlee</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>zack.pownall</t>
+          <t>ava__marie__warner__</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>703dg_</t>
+          <t>lindacollinsrpplqnwcke</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>layla_mariana16</t>
+          <t>sofiaa.cordon</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>deborah___wendy</t>
+          <t>melinamason</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>maeve.sophiaa</t>
+          <t>courtneyowens_ddsb</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>alana.aschenbach</t>
+          <t>stajoco</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>josephthomasfwyvzlegol</t>
+          <t>kian_foust</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>hdefreytas</t>
+          <t>oswandellauren</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kayliemfuller16</t>
+          <t>charlesjacksondvdpmrdelr</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>_kenziecline</t>
+          <t>pluggedwvu</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>gianna.reda</t>
+          <t>lizcastellarin</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jackradziwicz</t>
+          <t>erikbirddd</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>helenmoorehwbcwvqlcn</t>
+          <t>miked630</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>katiefinnegan3804</t>
+          <t>kaylan.connor</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>rankingsegun</t>
+          <t>will_lawton22</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,207 +2048,207 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>isaac_cayton222</t>
+          <t>mattpurtell11</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>christopherclarkoinqtluxdu</t>
+          <t>ericaaellisonn</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jeffery_simmons22</t>
+          <t>antarch.studioygg</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>jebiichepkoit</t>
+          <t>edengerdes</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>seanhenry._</t>
+          <t>charlie.wogisch</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>joshspindlerrrr</t>
+          <t>taylorrreedyy</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>realyoungzee</t>
+          <t>colin.burns03</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>jack.deem</t>
+          <t>kennedysands</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>julian_morales27</t>
+          <t>mcbrideethan562</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>dorothygonzalezbiqupexrgj</t>
+          <t>mcmg309</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>mason_zuber11</t>
+          <t>holbert.jacob</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>conner.thayer11</t>
+          <t>michaelmoorepjsntlejwm</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>madison_gates</t>
+          <t>davidpeto_</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>cheaters_gonnacheat2</t>
+          <t>stevenjohnsonayjwpxnzfv</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dylan.grosseto15</t>
+          <t>jamesyoungoxmoqsjpng</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>delaneymerritt</t>
+          <t>wvubestbuddies</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>niru_varma</t>
+          <t>ben__lando</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sadiefelipee</t>
+          <t>brianwilsonkstxgnhzgx</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>reagan._.k2005</t>
+          <t>blackoutwvu</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>mayur.j.patelnae</t>
+          <t>lukejake28</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>patriciamartinlueydfqpgc</t>
+          <t>deandre_shriv2</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>joe.doherty5</t>
+          <t>drew_yonavick9</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>jacksonmooney19</t>
+          <t>anthonymar2c</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>helentaylorxlzgbwvwhs</t>
+          <t>myapofi</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jessieash</t>
+          <t>nancyjacksonndjfbzrufg</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>altayebibnouf</t>
+          <t>anthonyparkerfpxldzmfnm</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>payton_c12</t>
+          <t>yorek22</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>fe_ruza4185</t>
+          <t>donaldwalkerczrtdxjfcy</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jmoney_569</t>
+          <t>stanguiemoreau</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ge_ra5818</t>
+          <t>molli.enfield1</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lillie.lizy</t>
+          <t>ryan.cotler</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>nadia.bogda05</t>
+          <t>brooklyn.huffman12</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ckim0629</t>
+          <t>m.addiemm</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ramji4290qbd</t>
+          <t>elizabethwilliamsrdaycturyw</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>chaseschmidt1108</t>
+          <t>michaelwalkerxpnwphdlkg</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>colin.waeschle</t>
+          <t>donnaturnerhxkhmdysfz</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>edwarddavismpdubdakeq</t>
+          <t>marleysullivann</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lanavictoria66</t>
+          <t>laura9506roberts</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ctimeneroupardin</t>
+          <t>alana.aschenbach</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_jordanlatora</t>
+          <t>davidbakerkipftmyabs</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>bettyyoungravywbpjmp</t>
+          <t>sophina_amelia_xo</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>joecristoforo</t>
+          <t>laurenanderson.75</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>adil___2211ycw</t>
+          <t>braelyn.hall_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>tay.brush.8</t>
+          <t>rebecca.dawson627</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>joe__gall</t>
+          <t>miroslava_7243</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>emma.vondran</t>
+          <t>gods_own_mavis</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>roman.concordia</t>
+          <t>stfrfhjute</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>its.greenlee</t>
+          <t>marcellaxfrancesca</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jongmansagape</t>
+          <t>bridgethenryy</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>lindawrighttcwqpxhytj</t>
+          <t>angelslocum24</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>pluggedwvu</t>
+          <t>emmasantamaria_</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>_johnoliva</t>
+          <t>abbyywalsh_</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>meredithpollock</t>
+          <t>aj.riggione</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>beenaboss23</t>
+          <t>_jonathan_nicoll_</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>kelli_trimble5</t>
+          <t>charlesthompsonpdzfhpemnx</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>gracefarrarr</t>
+          <t>autumnhurst_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>just4_nay</t>
+          <t>kkaylattx1</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>davidpeto_</t>
+          <t>johnbrowngxxynmirki</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>er_rajnikant_618fwf</t>
+          <t>_devonk75_</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>justinnadwodny</t>
+          <t>sethcogar</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>lukejake28</t>
+          <t>lespod8642</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>_allison_romano_</t>
+          <t>patriciamartinlueydfqpgc</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>katelyn_merlin_</t>
+          <t>jeffhernandezazmylxxaxp</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tommy._.holten</t>
+          <t>maddypomeroy_</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>learykiley</t>
+          <t>alexis.guerrero21</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>manvinaudiyalmon</t>
+          <t>sarahstoverrr</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>robertfierce</t>
+          <t>harry_bratzler</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>michelem21009</t>
+          <t>ianuariamohrhaus</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>davidfrier_16</t>
+          <t>sharonbrownazvhrcpcdd</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>zack_catterson</t>
+          <t>ursula.4708</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>matt._mcgin</t>
+          <t>kelli_trimble5</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>michellebakerqicdfpnano</t>
+          <t>kennethhillpzeqqknhkc</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>carson.krul</t>
+          <t>susanjohnsonlzirfctxjj</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>weabb4510</t>
+          <t>laurascotthgmipqptmb</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>sofiaa.cordon</t>
+          <t>dbttwvu</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>j_lovett1223</t>
+          <t>conner.thayer11</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>sophie_schiavino</t>
+          <t>avadattilo</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>brendan_brouder.12</t>
+          <t>ellelyons14</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>makynlee.martin</t>
+          <t>sgtwaugh</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>michellegreenmciunbmltt</t>
+          <t>ellelikebell2</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>berary9062</t>
+          <t>7188inessa</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>natashaannab</t>
+          <t>laynie.tate</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>kenddaaallll</t>
+          <t>hunter_pfeiffer27</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>leo.briggs11</t>
+          <t>_sydneeotto</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>abi_guthrie</t>
+          <t>yumbles1410</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>joooleyah</t>
+          <t>taylor.dubac</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>nicholsaon6634</t>
+          <t>joshreiswig_</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>susangonzalezdnsswllmnd</t>
+          <t>deborahrobertslbaqugjvmb</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>dean__odonnell</t>
+          <t>courtneyyeargers</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>thomashilletetfbfygw</t>
+          <t>maura.shook</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>lissa.wilson_</t>
+          <t>more_kay_lee_23</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>myapofi</t>
+          <t>kierstinbiro</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>reesewylie</t>
+          <t>michelleevanstiqvounivb</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>danielleverducci</t>
+          <t>katelynereau</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>scarlett.irizarry</t>
+          <t>tylermoss17</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>howardlaurence274</t>
+          <t>rodneyplugm</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>anastasia.demeye</t>
+          <t>brianna.yount</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>amyyycox</t>
+          <t>bradenkiesel</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>sgtwaugh</t>
+          <t>da.mira5702</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>lucyhugginss</t>
+          <t>neonilla548</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sarahdaviscslxacylrr</t>
+          <t>jrdavis4791</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>breannaloperrr</t>
+          <t>sarahjump._</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>katelynereau</t>
+          <t>robertsilvia82</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>jantonsera</t>
+          <t>edwarddavismpdubdakeq</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>donnaturnerhxkhmdysfz</t>
+          <t>jessicasnyder7536</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>sophia__22222</t>
+          <t>zit9069</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>jessicalove0019</t>
+          <t>jennifer_kiely12</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>anna.w__04</t>
+          <t>_johnoliva</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ellachildress_</t>
+          <t>tim.fry.338</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mattsienkiewicz_</t>
+          <t>angelina__anderson</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>bettyallenxbadizpxhe</t>
+          <t>alexis.zollinger</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>naresh_devipujak_2020klf</t>
+          <t>ari_davidson19</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>noahhgorospe</t>
+          <t>nadia.bogda05</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>magh.ie</t>
+          <t>carmellayianolatos</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>liniida2022</t>
+          <t>sshaner11</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>lindagarland21</t>
+          <t>olivia_graceee_</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>tyler_dip12</t>
+          <t>laurathompsonqkqqlyudtz</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>alyssa.falzarano</t>
+          <t>lexileathery</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>anthonyyoungkommsdwcgc</t>
+          <t>madie.1945</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>maddypomeroy_</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>sweetguy42022</t>
+          <t>parker_szwejbka</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>alfletkalkman</t>
+          <t>ryangr0ss</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>annieavillion</t>
+          <t>izabella.vidal</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>swflbildqr</t>
+          <t>avarosen__</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>anthonymar2c</t>
+          <t>matthewt330</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ashs_seniorassassin23</t>
+          <t>tay.madison</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>elizabethwilsontguodnidpw</t>
+          <t>_sycamoregirl_</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>kian_foust</t>
+          <t>annieavillion</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>robertedwardsyktoggtjaq</t>
+          <t>jordyn.lemire</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>danaaseasons</t>
+          <t>_brookespence</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ben__lando</t>
+          <t>jessicalove0019</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>rzr900life</t>
+          <t>mason_zuber11</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>johnbrowngxxynmirki</t>
+          <t>austinaube_</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>broeckaertbaukeh73r15</t>
+          <t>michelem21009</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>haruomimancinelli</t>
+          <t>ciannadanee</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>taylorrreedyy</t>
+          <t>josephharrishdkxkhniol</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>elizabethharrissfsjpewdfw</t>
+          <t>katieotiss</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>nilabland</t>
+          <t>deborahscottqghybcpzbc</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>parkrwhite</t>
+          <t>ca7aldo</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>maggie.whitten</t>
+          <t>halie.n0el</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>tracyglennon</t>
+          <t>williamlewisbppdmaxrmf</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mckenzie__robertson</t>
+          <t>_sophiamcnamara</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sarahmillerhzlwjzojfr</t>
+          <t>jenna_scheponik</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>syelemandula</t>
+          <t>brooklynrodamer</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>anna.hazelton</t>
+          <t>s_powers13</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>brianwilsonkstxgnhzgx</t>
+          <t>jackh_butler</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>nataliestasiowski</t>
+          <t>eu_lampia1517</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>motosutt</t>
+          <t>reesewylie</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>hunter_pfeiffer27</t>
+          <t>nico_junca7</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>paullewisrcibryzvcy</t>
+          <t>breannaloperrr</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>hope_stephen14</t>
+          <t>colin.waeschle</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>davidedwardsclwddwscsy</t>
+          <t>stevenhillnnxwgbppvi</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>decarvalho_katherine</t>
+          <t>stevenjonesnajybsflwi</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>hayden.clem_</t>
+          <t>layla_mariana16</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mitcheall9810</t>
+          <t>riplowgun</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ursula.4708</t>
+          <t>ta_la7365</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>hay.leeluv31</t>
+          <t>ryan_gilmo</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>edwardgreenzcufermtkd</t>
+          <t>josephthomasfwyvzlegol</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>brooklyn.huffman12</t>
+          <t>miphillips917</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>peytonmatheney</t>
+          <t>heatherhouser70</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>w_elfreth7</t>
+          <t>catierichmann</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>norbertt_castillo</t>
+          <t>cbankey</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>robertsilvia82</t>
+          <t>mikebrown2063</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>kevin4098jones</t>
+          <t>jeffwalkerylrmarjuuu</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>tucker_milligan6</t>
+          <t>caseyhavens_</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>anjo_pag23</t>
+          <t>muhsnate</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>sarahwalkererxqqnuwtj</t>
+          <t>gabby.cozza</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>heatherhouser70</t>
+          <t>jack__74_maj</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>charlesadamswisrsseuyr</t>
+          <t>kae.s.finsta</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ellelikebell2</t>
+          <t>isabella_oconnor_</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>kkaylattx1</t>
+          <t>justin.forshey</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>macie.eliz</t>
+          <t>cafritz1</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>rj.russell2</t>
+          <t>tracyglennon</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>kevinwilliamsnyqrnqjewt</t>
+          <t>alex.hagman</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>jeffperezrpvzuddnfd</t>
+          <t>haleyharsh</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>izabella.vidal</t>
+          <t>ths_carly_kerry</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ray.c_9th</t>
+          <t>niru_varma</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>courtneyowens_ddsb</t>
+          <t>maraksuryarzm</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>lindacollinsrpplqnwcke</t>
+          <t>amy.casterline</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>lacijcarlson</t>
+          <t>logan.marsh._</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ryan.cotler</t>
+          <t>the_max144</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>rahi_3713whw</t>
+          <t>kaylynnnnm</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>valthomas2521</t>
+          <t>lissa.wilson_</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>benosenton_27</t>
+          <t>maggie.sleeth</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>gods_own_mavis</t>
+          <t>courtanne777</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>eric.savino46</t>
+          <t>alexandra_.miller</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>giooregg_</t>
+          <t>henry_heneghan_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>kae.s.finsta</t>
+          <t>gracefarrarr</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>praveersmith</t>
+          <t>kylesheahin_23</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>sarahjump._</t>
+          <t>pattyspa20</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>nataliedesantis_</t>
+          <t>ronaldkingcynutnwdsf</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>sharonmooreehyuxrihtb</t>
+          <t>clements56</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>edward___0620</t>
+          <t>kylienewlon</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>wolf_koral</t>
+          <t>taylor__burns</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>sydtroup</t>
+          <t>alexishibbs</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>landenmans</t>
+          <t>jddwvu01</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>thejeffreybrenner</t>
+          <t>swflbildqr</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ladiescorner67loz</t>
+          <t>maeve.sophiaa</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>mike.santorello</t>
+          <t>karenmcrobie</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>darrahpennington</t>
+          <t>2128_varvara</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>oliviaj.horner</t>
+          <t>marcusmeakim</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>matthewt330</t>
+          <t>danielturnerhpgldfwbhk</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>chen_writters7</t>
+          <t>devin_mcveagh</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>rachel.lunny18</t>
+          <t>kaylee.yanovich</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>janleigh8</t>
+          <t>makena_vass</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>christa.m.lutz</t>
+          <t>tjhoff33</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>sophina_amelia_xo</t>
+          <t>kim_conkl</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>laurenanderson.75</t>
+          <t>nevaehswisher</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>elizabethwilliamsrdaycturyw</t>
+          <t>216.samii</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>oliviamklein</t>
+          <t>kylielyobe</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>kaylee_williams_24</t>
+          <t>anna.w__04</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>leeannacoffman21</t>
+          <t>johngonzalezjulanazskp</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,2600 +4168,10 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ssg.codygray</t>
+          <t>hopern714</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>ellamoffittt</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>stevencollinskkfubvvlro</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>marrisjoe69</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>yumbles1410</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>karenmcrobie</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>jcbenni1</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>2kvqj3ebmborisovalarisa</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>gabby.cozza</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>susan.hanson05</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>perfect_finish_cosmetology</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>giannalivi03</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>constanciarotzsch</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>patriack564</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>michellemartingdftlfhiki</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>makena_vass</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>sandraclarkaxxcymwedv</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>owen_curtis_32</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>stormiheadley</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>zack.miller44</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>ryann.ensell</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>jersey.kiely</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>kgonyer18</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>_jonathan_nicoll_</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>woofy_33</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>dorothyphillipsjyguwqqpbx</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>kadam7114puv</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>s.eth05</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>erkenradschroyens</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>teejdipi</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>brooke.lindstrom27</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>kaylasowardsss</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>hicksd6</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>katemontbriand</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>davidallenbbginqqxyj</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>lespod8642</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>_devonk75_</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>_skylarkelly_</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>miss_motogirl_dhq</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>stanguiemoreau</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>maddoxmadia</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>keziameltzer</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>camrynlevy</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>christine_mcnamara_</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>charitygette</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>levybowman</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>sethcogar</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>macie.hadeed</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>jameskurth_</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>alexandria.becker_</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>ellagarber1</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>jojo_26x</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>alexayree</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>bobby_benoit1</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>casterline_will</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>m.wood12</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>daniel.schalles</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>lizcastellarin</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>gradyros3</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>williamlewisbppdmaxrmf</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>jackg_2005</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>kierstinbiro</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>ella.dunn2305</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>jatinkashyap_23sga</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>louisbilardo</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>suvas_patel688ctg</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>mylesjkok_17</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>m.cozzie</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>loganfarrell_</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>rizzo2360joey</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>bakaer3387</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>allyprenni</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>payton.murphyyy</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>carolinebellepadgett4823</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>lolli_popgirl667</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>jennifer_kiely12</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>alanna_l23</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>drake_r88</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>parmarnayan847ebb</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>clements56</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>guardmom2023</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>yowhereslogan</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>em_150d</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>clarkhero05</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>menka_bhagchandani</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>sam_prats</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>lauranelsonfolloqkadk</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>nancylopezyuvjheahaj</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>cchloelent</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>5975.martina</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>kathryn_mcgonagle</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>aj.riggione</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>erinelizabeth660</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>the_real_nat</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>ronaldallenvxoffapfdt</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>rihodii</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>natenstuff1273</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>brooklenshifflett</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>bruceveronica953</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>jenna.biro</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>jordanfiler</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>beachgirl7755</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>carmella.ella.ella.eh.eh.eh</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>colbygengras</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>jasonferola</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>viviekenny</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>mrossi0517</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>marcusmeakim</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>gurshan_guraya_odk</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>kchandler___</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>_brookespence</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>mckenzie_buchanan04</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>eu_lampia1517</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>wbohdtoxql</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>peytonlebourveau</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>aly.rossi</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>ben_weinberger</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>nharper79</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>marklopezauvqppbzdb</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>maddie_bunis</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>charles._.chang</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>jackbenj808</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>dawnreen67</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>lisataylortidykwnnea</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>maraksuryarzm</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>livgreathouse</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>_laurenmaroney</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>bpysh08</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>mandiasaahabsre</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>nancyyounghunjnujnvt</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>_saralyon</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>jack__74_maj</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>therealgsu</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>tanish_gautam36</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>nico_junca7</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>katieotiss</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>_saddu_02lqn</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>kylielyobe</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>drakewangler_</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>sierra.green10</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>grace.leonardd</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>evan_west3</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>payal_parmar2791dxr</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>tylermoss17</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>jenniferjonestdiwxpgetn</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>saschaagutierrez</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>harry_bratzler</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>ta_isia2155</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>christianrobertsmith</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>mattpurtell11</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>johnmooreegxerqdiiv</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>champagnenathan2</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>malloryvandenk</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>ij0u0btevermilovaeupraxia</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>ciannadanee</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>sharonhernandezoezjtbgrqa</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>pipermasseyy</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>ihormasy</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>bridgethenryy</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>allisoncbrinkman</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>snezhana_4775</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>ezziexb</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>susangarciaaewxsqmksh</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>alexa.pellino</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>lauragarciakwksietpbc</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>tay.madison</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>nevaehswisher</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>lauren.berry0</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>briannaleightonn</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>jack_gimm</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>ianuariamohrhaus</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>miroslava_7243</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>eviesafran</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>charlesallenlgaxnmouaz</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>utchaschowdhury</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>mitriaranburu</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>susanjohnsonlzirfctxjj</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>tristen.salyard</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>srt.slime422</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>kolieande</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>blackoutwvu</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>adkinson.michael</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>bryleehendry</t>
-        </is>
-      </c>
-      <c r="B556" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>antarch.studioygg</t>
-        </is>
-      </c>
-      <c r="B557" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>lauramillershqeamforb</t>
-        </is>
-      </c>
-      <c r="B558" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>donaldwalkerczrtdxjfcy</t>
-        </is>
-      </c>
-      <c r="B559" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>pagali_49dhr</t>
-        </is>
-      </c>
-      <c r="B560" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>bigreigs99</t>
-        </is>
-      </c>
-      <c r="B561" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>laynie.tate</t>
-        </is>
-      </c>
-      <c r="B562" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>kevinkearney24</t>
-        </is>
-      </c>
-      <c r="B563" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>jasonwhitezmuwcpftgz</t>
-        </is>
-      </c>
-      <c r="B564" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>gino.gambinoo</t>
-        </is>
-      </c>
-      <c r="B565" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>fa_stinebiser</t>
-        </is>
-      </c>
-      <c r="B566" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>elliebeetel</t>
-        </is>
-      </c>
-      <c r="B567" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>aleathery29</t>
-        </is>
-      </c>
-      <c r="B568" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>madisyngarreffi</t>
-        </is>
-      </c>
-      <c r="B569" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>kcrow_25</t>
-        </is>
-      </c>
-      <c r="B570" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>willwozniak</t>
-        </is>
-      </c>
-      <c r="B571" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>ashmit.b</t>
-        </is>
-      </c>
-      <c r="B572" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>nathankormann</t>
-        </is>
-      </c>
-      <c r="B573" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>hiall5784</t>
-        </is>
-      </c>
-      <c r="B574" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>ta_la7365</t>
-        </is>
-      </c>
-      <c r="B575" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>realmarkfeinman</t>
-        </is>
-      </c>
-      <c r="B576" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>jessetoro_</t>
-        </is>
-      </c>
-      <c r="B577" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>stephanieanastasiaa</t>
-        </is>
-      </c>
-      <c r="B578" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>deborahrobertslbaqugjvmb</t>
-        </is>
-      </c>
-      <c r="B579" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>jordanlupi</t>
-        </is>
-      </c>
-      <c r="B580" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>slgandmyeight8</t>
-        </is>
-      </c>
-      <c r="B581" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>kaylynnnnm</t>
-        </is>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>kaylan.connor</t>
-        </is>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>ryan_traverse</t>
-        </is>
-      </c>
-      <c r="B584" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>kannandrsnrg</t>
-        </is>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>filiptarcz</t>
-        </is>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>edie_05_</t>
-        </is>
-      </c>
-      <c r="B587" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>emilyb.eq</t>
-        </is>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>oluwoleabraham11</t>
-        </is>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>rocky_takii</t>
-        </is>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>smith.brenda_</t>
-        </is>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>jacob.banton</t>
-        </is>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>charlesjacksondvdpmrdelr</t>
-        </is>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>zac_elliott_7</t>
-        </is>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>deandre_shriv2</t>
-        </is>
-      </c>
-      <c r="B595" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>ineke.sharna</t>
-        </is>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>braden_lesage</t>
-        </is>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>hannah_horvath8</t>
-        </is>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>gregoary6229</t>
-        </is>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>justin.forshey</t>
-        </is>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>jessica_bagala11234</t>
-        </is>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>brooklyn.alyese</t>
-        </is>
-      </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>cassidy_conover</t>
-        </is>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>sarah.wilczynski</t>
-        </is>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>colin.burns03</t>
-        </is>
-      </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>tasha_bvv</t>
-        </is>
-      </c>
-      <c r="B606" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>_joeyz23</t>
-        </is>
-      </c>
-      <c r="B607" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>lucardiscresson</t>
-        </is>
-      </c>
-      <c r="B608" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>susansmithunrjclmvci</t>
-        </is>
-      </c>
-      <c r="B609" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>_rileyrussell_</t>
-        </is>
-      </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>korylegg</t>
-        </is>
-      </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>christina_han_04</t>
-        </is>
-      </c>
-      <c r="B612" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>richoldasimoes</t>
-        </is>
-      </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>alana.marrie</t>
-        </is>
-      </c>
-      <c r="B614" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>jillianschneides</t>
-        </is>
-      </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>kaelynn_loften</t>
-        </is>
-      </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>parker_szwejbka</t>
-        </is>
-      </c>
-      <c r="B617" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>jamesmartinezpbqovlrihg</t>
-        </is>
-      </c>
-      <c r="B618" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>hoalt9195</t>
-        </is>
-      </c>
-      <c r="B619" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>susangreenowpwkuutof</t>
-        </is>
-      </c>
-      <c r="B620" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>lextuccillo</t>
-        </is>
-      </c>
-      <c r="B621" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>donnarobinsondsmiqftnbj</t>
-        </is>
-      </c>
-      <c r="B622" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>kaysharon664</t>
-        </is>
-      </c>
-      <c r="B623" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>arymi0602</t>
-        </is>
-      </c>
-      <c r="B624" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>sharonbrownazvhrcpcdd</t>
-        </is>
-      </c>
-      <c r="B625" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>yorek22</t>
-        </is>
-      </c>
-      <c r="B626" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>brettchampagne2</t>
-        </is>
-      </c>
-      <c r="B627" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>davidfarnan__</t>
-        </is>
-      </c>
-      <c r="B628" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>jeffwalkerylrmarjuuu</t>
-        </is>
-      </c>
-      <c r="B629" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>sarahhopeel</t>
-        </is>
-      </c>
-      <c r="B630" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>jyd.markstar</t>
-        </is>
-      </c>
-      <c r="B631" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>alexandra_.miller</t>
-        </is>
-      </c>
-      <c r="B632" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>aelopata</t>
-        </is>
-      </c>
-      <c r="B633" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/wvu.roomme.xlsx
+++ b/Marketing/wvu.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">

--- a/Marketing/wvu.roomme.xlsx
+++ b/Marketing/wvu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>west_cb</t>
+          <t>lilya_bucknell</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>roman.concordia</t>
+          <t>pandasabo</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alana.marrie</t>
+          <t>payton.murphyyy</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gradyros3</t>
+          <t>mckennadestiny</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>carolallenonwqnyuwtt</t>
+          <t>lumpy_11</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>irelinurban</t>
+          <t>ellachildress_</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>edwardjohnsonamhtejtlvx</t>
+          <t>bella_munkittrick</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>taylor.retallick</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mattgrauert07</t>
+          <t>dominique.ava</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jethrohicktown</t>
+          <t>madi.rose29</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>grace_schumacher</t>
+          <t>drake_r88</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>alyssa.falzarano</t>
+          <t>tysommerrr</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kgonyer18</t>
+          <t>m.cozzie</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tommymagee12</t>
+          <t>nico_junca7</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>elliesayre_</t>
+          <t>lindawrighttcwqpxhytj</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alexa.pellino</t>
+          <t>marybakerhoqppatgha</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>leiliayoh</t>
+          <t>aliii_ellerrr</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ashmit.b</t>
+          <t>jeffhernandezazmylxxaxp</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lextuccillo</t>
+          <t>ryann.ensell</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fa_stinebiser</t>
+          <t>annieavillion</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>linjiahua0723</t>
+          <t>avawitkum</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kathryn.williams99</t>
+          <t>kristennam</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ellagarber1</t>
+          <t>that_blonde_girl_tay</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>maya.nonnenberg</t>
+          <t>lauren_guzzo</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dorothyphillipsjyguwqqpbx</t>
+          <t>brooke_lucas11</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ammyczene</t>
+          <t>kayliemfuller16</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>scott_mcclellan_2410</t>
+          <t>kieranomaraa</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>eli_youell</t>
+          <t>charles._.chang</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>natalief365</t>
+          <t>carolinelouise_b</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>olivia_weida</t>
+          <t>izzylambiro</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fe.vronia5049</t>
+          <t>bettyallenxbadizpxhe</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mollee.mccann</t>
+          <t>aj_orlando7</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>gabby_seinwels</t>
+          <t>_laurenmaroney</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>samocorner_13qzu</t>
+          <t>carson.krul</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>adkinson.michael</t>
+          <t>satish_suri05</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>maggiewoodd_</t>
+          <t>thewvstarr</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dawnreen67</t>
+          <t>marcusmeakim</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>kaylasowardsss</t>
+          <t>izzynapierr</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>emmie.herman</t>
+          <t>makynlee.martin</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>maxbrock</t>
+          <t>motosutt</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sarahhopeel</t>
+          <t>mattsienkiewicz_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dylanmigliozzi</t>
+          <t>chaseschmidt1108</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mylesjkok_17</t>
+          <t>gabby_seinwels</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>donaldperezmduypcnmwc</t>
+          <t>tabitha.adams2</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>paulmoorecwobxdgwkr</t>
+          <t>drewpierce_29</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ella.dunn2305</t>
+          <t>annabelle_arnolds</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>leo.gerunda</t>
+          <t>mckenna.blue</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>stormiheadley</t>
+          <t>salmatayari_</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>joecristoforo</t>
+          <t>tommymagee12</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2kvqj3ebmborisovalarisa</t>
+          <t>greg_foley69</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jacksonmooney19</t>
+          <t>megannsheehann</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kcrow_25</t>
+          <t>anapaglio</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>evan_west3</t>
+          <t>sharonbrownazvhrcpcdd</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>luca_a_liesfeld</t>
+          <t>donaldwalkerczrtdxjfcy</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>m.cozzie</t>
+          <t>ce.taylor</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>pipermasseyy</t>
+          <t>jeffwalkerylrmarjuuu</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>gus_lindberger</t>
+          <t>_sydneeotto</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>d88uuww8kberiaelizabeth</t>
+          <t>sophkeller444</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>kaelynn_loften</t>
+          <t>ryan_traverse</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>danaaseasons</t>
+          <t>oliviacapaldii</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>keziameltzer</t>
+          <t>jgriev.4</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ddepinto04</t>
+          <t>alana.marrie</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>david.hill_97</t>
+          <t>sarahstoverrr</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tina.h.atkins</t>
+          <t>casterline_will</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gteachelf</t>
+          <t>tyler_dip12</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>reagansurface</t>
+          <t>sam_prats</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>chmiller28</t>
+          <t>tessrodell</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lukesyrett_</t>
+          <t>michellewhiteilwifnrbig</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tori.pratt19</t>
+          <t>ericaaellisonn</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mattduffy113</t>
+          <t>m.attcarson</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>amelia_s217</t>
+          <t>stevenjohnsonayjwpxnzfv</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>eva._nystrom</t>
+          <t>allysonyantek</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>anna.hazelton</t>
+          <t>jeffperezrpvzuddnfd</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ryan_coop_18</t>
+          <t>rcoleman.22</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>brie_decarvalho00</t>
+          <t>abe.fen11</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jabollhorst</t>
+          <t>tay.madison</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>haruomimancinelli</t>
+          <t>charlesjacksondvdpmrdelr</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>snezhana_4775</t>
+          <t>pipermasseyy</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>alexa_rolph</t>
+          <t>danaaseasons</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>teejdipi</t>
+          <t>mfrost_1121</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ta_isia2155</t>
+          <t>justinnadwodny</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>malachiwebb04</t>
+          <t>ellelyons14</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_saralyon</t>
+          <t>kaelynrichmond</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>loveelyssaa_</t>
+          <t>wolf_koral</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nataliestasiowski</t>
+          <t>_sycamoregirl_</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>owen_curtis_32</t>
+          <t>matthewaltenburger</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kathryn_mcgonagle</t>
+          <t>kennedylyriccc</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>antonio.russell_</t>
+          <t>maeve_galvan</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>brok_c_english</t>
+          <t>sydneymsenior</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>matthewaltenburger</t>
+          <t>mauriehaddad</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>abby.bittner_</t>
+          <t>bella.albericoo</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5975.martina</t>
+          <t>carmella.ella.ella.eh.eh.eh</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nifffffty</t>
+          <t>andrewkudlik</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>noahhgorospe</t>
+          <t>sarahhopeel</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kimbecozy</t>
+          <t>izabella.vidal</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jackg_2005</t>
+          <t>jennifershaughn</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>wvusic</t>
+          <t>zit9069</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>katringparillaud</t>
+          <t>jayden.key5898</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>christopherclarkoinqtluxdu</t>
+          <t>sst_77_</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ineke.sharna</t>
+          <t>ekennedy.05</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ian.mcl</t>
+          <t>louisbilardo</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>_alissasilva_</t>
+          <t>taylorduncan10</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>landonranson_</t>
+          <t>brookie__boi</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>maddie_bunis</t>
+          <t>bernadettehogann</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>patriciawhitepjcoskmwxj</t>
+          <t>kelli_trimble5</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>nadiapollinger</t>
+          <t>jamesmartinezpbqovlrihg</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>caroljacksonrrcbggfsyl</t>
+          <t>rachel.ann04</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>parkrwhite</t>
+          <t>donaldmkargbo</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>eliyoue1</t>
+          <t>learykiley</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>kaysharon664</t>
+          <t>_devonk75_</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cheaters_gonnacheat2</t>
+          <t>ava.lynn0508</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>dylan.grosseto15</t>
+          <t>decarvalho_katherine</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>rostislava9925</t>
+          <t>olivia_donoghue04</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>marebearmama</t>
+          <t>evafin8</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ax_strongarm</t>
+          <t>devin.pratt05</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>__grey.butterfly</t>
+          <t>kaelynn_loften</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>maddoxmadia</t>
+          <t>kaylasowardsss</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>zi.ta8779</t>
+          <t>lacijcarlson</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>zack.miller44</t>
+          <t>g.minney</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>aelopata</t>
+          <t>iancfinegan</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>christa.m.lutz</t>
+          <t>corabroskee</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>carolwilsonddshwjzksa</t>
+          <t>thomashilletetfbfygw</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lacijcarlson</t>
+          <t>maddie_bunis</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2wvu24u</t>
+          <t>miagullo_</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ge_ra5818</t>
+          <t>mrs.surmarzio</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jackradziwicz</t>
+          <t>heatherhouser70</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>isaac_cayton222</t>
+          <t>alana.aschenbach</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bryce.schell16</t>
+          <t>zac_elliott_7</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hollyngrace078</t>
+          <t>amanda.smith05</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>kaelynrichmond</t>
+          <t>donaldgonzalezpdgqfpshbl</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,1307 +1748,1307 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>smith.brenda_</t>
+          <t>leo.gerunda</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>helennelsonartnlkanpg</t>
+          <t>missmd4</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>abi_guthrie</t>
+          <t>_abby_thompson</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>brianwilsonlwxtaupriz</t>
+          <t>jacob.banton</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ellachildress_</t>
+          <t>xo.michaelab</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ray.c_9th</t>
+          <t>catherinecoyle</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>perrier40</t>
+          <t>kkaylattx1</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>meredithpollock</t>
+          <t>maggie.sleeth</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>_miawalls_</t>
+          <t>taylorrreedyy</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>brianscholtenn</t>
+          <t>rufatwvu</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>matt._mcgin</t>
+          <t>maeve.sophiaa</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mckenzie__robertson</t>
+          <t>gabby.cozza</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>billwelds</t>
+          <t>marti.mcgowan</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>jyd.markstar</t>
+          <t>adriennedallos</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>its.greenlee</t>
+          <t>victoria.marie77</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ava__marie__warner__</t>
+          <t>colbygengras</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lindacollinsrpplqnwcke</t>
+          <t>emilyb.eq</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sofiaa.cordon</t>
+          <t>logan.hayhurst.5</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>melinamason</t>
+          <t>kileymurphyy</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>courtneyowens_ddsb</t>
+          <t>west_cb</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>stajoco</t>
+          <t>_alissasilva_</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>kian_foust</t>
+          <t>annissa.eichhorn9</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>oswandellauren</t>
+          <t>jebiichepkoit</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>charlesjacksondvdpmrdelr</t>
+          <t>dunphyjp_</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>pluggedwvu</t>
+          <t>lola_jsmith</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>lizcastellarin</t>
+          <t>tylermoss17</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>erikbirddd</t>
+          <t>caseyhavens_</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>miked630</t>
+          <t>rizzo2360joey</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kaylan.connor</t>
+          <t>davidfrier_16</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>will_lawton22</t>
+          <t>nataliemaccausland</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>mattpurtell11</t>
+          <t>gabbywambold</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ericaaellisonn</t>
+          <t>tjhoff33</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>antarch.studioygg</t>
+          <t>delaneyryoung</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>edengerdes</t>
+          <t>s_powers13</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>charlie.wogisch</t>
+          <t>megan__whelan</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>taylorrreedyy</t>
+          <t>sofia.emma3</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>colin.burns03</t>
+          <t>libertycullenn</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>kennedysands</t>
+          <t>kathleenn.burns</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>mcbrideethan562</t>
+          <t>tinee.456avn</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>mcmg309</t>
+          <t>_katieriggs</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>holbert.jacob</t>
+          <t>lila.weldon</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>michaelmoorepjsntlejwm</t>
+          <t>_jennanagy_</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>davidpeto_</t>
+          <t>zoee_422</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>stevenjohnsonayjwpxnzfv</t>
+          <t>jameskurth_</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>jamesyoungoxmoqsjpng</t>
+          <t>allie.bonvechio</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>wvubestbuddies</t>
+          <t>cbankey</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ben__lando</t>
+          <t>lauren.berry0</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>brianwilsonkstxgnhzgx</t>
+          <t>ryan.cotler</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>blackoutwvu</t>
+          <t>tonybalogna88</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>lukejake28</t>
+          <t>emmasantamaria_</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>deandre_shriv2</t>
+          <t>mikaylaspearing</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>drew_yonavick9</t>
+          <t>utchaschowdhury</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>anthonymar2c</t>
+          <t>olivia.ginsburg</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>myapofi</t>
+          <t>toriengoron</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>nancyjacksonndjfbzrufg</t>
+          <t>countrymommaa</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>anthonyparkerfpxldzmfnm</t>
+          <t>ths_carly_kerry</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>yorek22</t>
+          <t>kylesheahin_23</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>donaldwalkerczrtdxjfcy</t>
+          <t>rebekxh_</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>stanguiemoreau</t>
+          <t>gracebosnic</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>molli.enfield1</t>
+          <t>reagan._.k2005</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ryan.cotler</t>
+          <t>brooklenshifflett</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>brooklyn.huffman12</t>
+          <t>j_lovett1223</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>m.addiemm</t>
+          <t>jemoore5543</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>elizabethwilliamsrdaycturyw</t>
+          <t>cheaters_gonnacheat2</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>michaelwalkerxpnwphdlkg</t>
+          <t>sarah.lupinetti</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>donnaturnerhxkhmdysfz</t>
+          <t>logan.marsh._</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>marleysullivann</t>
+          <t>laurenanderson.75</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>laura9506roberts</t>
+          <t>david.hill_97</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alana.aschenbach</t>
+          <t>mattpurtell11</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>davidbakerkipftmyabs</t>
+          <t>alexa.pellino</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sophina_amelia_xo</t>
+          <t>_adiablanchard</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>laurenanderson.75</t>
+          <t>peytonlebourveau</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>braelyn.hall_</t>
+          <t>owen_curtis_32</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rebecca.dawson627</t>
+          <t>r_gracie21</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>miroslava_7243</t>
+          <t>beauwilliams.7</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>gods_own_mavis</t>
+          <t>victoria.rubino</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>stfrfhjute</t>
+          <t>egvandergriff</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>marcellaxfrancesca</t>
+          <t>elisevankarsenn</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>bridgethenryy</t>
+          <t>braelyn.hall_</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>angelslocum24</t>
+          <t>gabi_resnick24</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>emmasantamaria_</t>
+          <t>_rileyemoore</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>abbyywalsh_</t>
+          <t>w_elfreth7</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>aj.riggione</t>
+          <t>will_lawton22</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>_jonathan_nicoll_</t>
+          <t>lundgren_lindsey</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>charlesthompsonpdzfhpemnx</t>
+          <t>brooklynrodamer</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>autumnhurst_</t>
+          <t>tanish_gautam36</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>kkaylattx1</t>
+          <t>courtneyowens_ddsb</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>johnbrowngxxynmirki</t>
+          <t>edwardgreenzcufermtkd</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_devonk75_</t>
+          <t>maryturnerccneanhswk</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>sethcogar</t>
+          <t>sammie.binder</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>lespod8642</t>
+          <t>joecristoforo</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>patriciamartinlueydfqpgc</t>
+          <t>elizabethl05</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>jeffhernandezazmylxxaxp</t>
+          <t>ben_weinberger</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>maddypomeroy_</t>
+          <t>joshreiswig_</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>alexis.guerrero21</t>
+          <t>fa_stinebiser</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sarahstoverrr</t>
+          <t>collinharris323</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>harry_bratzler</t>
+          <t>kaylan.connor</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ianuariamohrhaus</t>
+          <t>peter.malycky</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sharonbrownazvhrcpcdd</t>
+          <t>ryangr0ss</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ursula.4708</t>
+          <t>seanhenry._</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>kelli_trimble5</t>
+          <t>lizfotii</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kennethhillpzeqqknhkc</t>
+          <t>lukejake28</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>susanjohnsonlzirfctxjj</t>
+          <t>sophiaaceo</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>laurascotthgmipqptmb</t>
+          <t>ca7aldo</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>dbttwvu</t>
+          <t>halie.n0el</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>conner.thayer11</t>
+          <t>clements56</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>avadattilo</t>
+          <t>reesewylie</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ellelyons14</t>
+          <t>ajk907</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sgtwaugh</t>
+          <t>jordannokeefe</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ellelikebell2</t>
+          <t>deborahrobertslbaqugjvmb</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>7188inessa</t>
+          <t>olivia_graceee_</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>laynie.tate</t>
+          <t>norahough</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>hunter_pfeiffer27</t>
+          <t>k.ashlee</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>_sydneeotto</t>
+          <t>sarah.wilczynski</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>yumbles1410</t>
+          <t>angiegaletovic</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>taylor.dubac</t>
+          <t>natalie.cucchi</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>joshreiswig_</t>
+          <t>ky.michalak</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>deborahrobertslbaqugjvmb</t>
+          <t>giannagriffiss</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>courtneyyeargers</t>
+          <t>sophie_schiavino</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>maura.shook</t>
+          <t>haleyharsh</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>more_kay_lee_23</t>
+          <t>aj.riggione</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>kierstinbiro</t>
+          <t>parker_szwejbka</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>michelleevanstiqvounivb</t>
+          <t>stevenhillnnxwgbppvi</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>katelynereau</t>
+          <t>hannah_horvath8</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tylermoss17</t>
+          <t>prestonbucci</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rodneyplugm</t>
+          <t>ty_alwaysopen</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>brianna.yount</t>
+          <t>its.greenlee</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>bradenkiesel</t>
+          <t>ndempz</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>da.mira5702</t>
+          <t>maddyeichelberger_</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>neonilla548</t>
+          <t>sandraclarkaxxcymwedv</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>jrdavis4791</t>
+          <t>viviekenny</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sarahjump._</t>
+          <t>meadowsunnn</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>robertsilvia82</t>
+          <t>jillsween</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>edwarddavismpdubdakeq</t>
+          <t>beachlove92937</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jessicasnyder7536</t>
+          <t>debmartino</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>zit9069</t>
+          <t>maya.wije</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>jennifer_kiely12</t>
+          <t>micayladamico21</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>_johnoliva</t>
+          <t>oliviawalters16</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>tim.fry.338</t>
+          <t>krishnajoshi_5687uji</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>angelina__anderson</t>
+          <t>eli_youell</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>alexis.zollinger</t>
+          <t>sam_carver39</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ari_davidson19</t>
+          <t>kyyliedavis</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>nadia.bogda05</t>
+          <t>kwwami</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>carmellayianolatos</t>
+          <t>maxlambden</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sshaner11</t>
+          <t>aubreyluce_</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>olivia_graceee_</t>
+          <t>michelaaraco</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>laurathompsonqkqqlyudtz</t>
+          <t>irelinurban</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lexileathery</t>
+          <t>adigraham_</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>madie.1945</t>
+          <t>abby.bittner_</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>therealgsu</t>
+          <t>daramiesjulespaddio</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>parker_szwejbka</t>
+          <t>davidfarnan__</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ryangr0ss</t>
+          <t>courtneypavick</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>izabella.vidal</t>
+          <t>kaylee_williams_24</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>avarosen__</t>
+          <t>braymck5</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>matthewt330</t>
+          <t>obx.dibanhi</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>tay.madison</t>
+          <t>hannahstack_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>_sycamoregirl_</t>
+          <t>brie_ee27</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>annieavillion</t>
+          <t>brivelezz</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jordyn.lemire</t>
+          <t>laurenloco1</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_brookespence</t>
+          <t>keirakennedyy_</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jessicalove0019</t>
+          <t>nickkeener_</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mason_zuber11</t>
+          <t>m._kowalski</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>austinaube_</t>
+          <t>rileymorriss__</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>michelem21009</t>
+          <t>_skylarkelly_</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ciannadanee</t>
+          <t>nickandria23</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>josephharrishdkxkhniol</t>
+          <t>adrianna.nelli</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>katieotiss</t>
+          <t>maggierrose</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>deborahscottqghybcpzbc</t>
+          <t>ian_murray2023</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ca7aldo</t>
+          <t>abbyywalsh_</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>halie.n0el</t>
+          <t>kcrow_25</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>williamlewisbppdmaxrmf</t>
+          <t>michaelwalkerxpnwphdlkg</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>_sophiamcnamara</t>
+          <t>grace_schumacher</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jenna_scheponik</t>
+          <t>laneygburns</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>brooklynrodamer</t>
+          <t>kennedysands</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>s_powers13</t>
+          <t>lucymulkern_</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jackh_butler</t>
+          <t>_jonathan_nicoll_</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>eu_lampia1517</t>
+          <t>antonio.russell_</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>reesewylie</t>
+          <t>ckim0629</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>nico_junca7</t>
+          <t>kolieande</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>breannaloperrr</t>
+          <t>haruomimancinelli</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>colin.waeschle</t>
+          <t>autumnhurst_</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>stevenhillnnxwgbppvi</t>
+          <t>charliearnold_18</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>stevenjonesnajybsflwi</t>
+          <t>joehutson_1</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>layla_mariana16</t>
+          <t>kevinkearney24</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>riplowgun</t>
+          <t>berary9062</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ta_la7365</t>
+          <t>ana_bellejackson</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ryan_gilmo</t>
+          <t>christianrobertsmith</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>josephthomasfwyvzlegol</t>
+          <t>drakewangler_</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>miphillips917</t>
+          <t>iamustafaozkan</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>heatherhouser70</t>
+          <t>alilamarcaa</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>catierichmann</t>
+          <t>genny.bennett.5</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>cbankey</t>
+          <t>ray.c_9th</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>mikebrown2063</t>
+          <t>sarahjump._</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>jeffwalkerylrmarjuuu</t>
+          <t>camrynlevy</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>caseyhavens_</t>
+          <t>kae.s.finsta</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>muhsnate</t>
+          <t>max_mcfeley_xx</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>gabby.cozza</t>
+          <t>kgonyer18</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jack__74_maj</t>
+          <t>bencushey</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>kae.s.finsta</t>
+          <t>sam_ruese</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>isabella_oconnor_</t>
+          <t>giooregg_</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>justin.forshey</t>
+          <t>noelleschueck</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>cafritz1</t>
+          <t>kyramarker</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>tracyglennon</t>
+          <t>annariffle12</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>alex.hagman</t>
+          <t>ajaxt712</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>haleyharsh</t>
+          <t>mikayla_jacks</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ths_carly_kerry</t>
+          <t>jacob_keir_</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>niru_varma</t>
+          <t>brycecohenn</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>maraksuryarzm</t>
+          <t>_brookespence</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>amy.casterline</t>
+          <t>jyd.markstar</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>logan.marsh._</t>
+          <t>sophiadoto</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>the_max144</t>
+          <t>jstansell05</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>kaylynnnnm</t>
+          <t>averi.elsbury</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>lissa.wilson_</t>
+          <t>gradyros3</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>maggie.sleeth</t>
+          <t>rachel.lunny18</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>courtanne777</t>
+          <t>julian_morales27</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>alexandra_.miller</t>
+          <t>delaneymerritt</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>henry_heneghan_</t>
+          <t>_miawalls_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>gracefarrarr</t>
+          <t>lexi.corey_</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>kylesheahin_23</t>
+          <t>teejdipi</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>pattyspa20</t>
+          <t>sarahmillerhzlwjzojfr</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ronaldkingcynutnwdsf</t>
+          <t>dugan.cj</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>clements56</t>
+          <t>katey.sullivan</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>kylienewlon</t>
+          <t>kylieclug</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>taylor__burns</t>
+          <t>gregoary6229</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>alexishibbs</t>
+          <t>ij0u0btevermilovaeupraxia</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>jddwvu01</t>
+          <t>lizcastellarin</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>swflbildqr</t>
+          <t>elizabethwilsontguodnidpw</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>maeve.sophiaa</t>
+          <t>nadia.bogda05</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>karenmcrobie</t>
+          <t>miked630</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2128_varvara</t>
+          <t>kamrynnatale</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>marcusmeakim</t>
+          <t>tristen.salyard</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>danielturnerhpgldfwbhk</t>
+          <t>michelem21009</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>devin_mcveagh</t>
+          <t>katemontbriand</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>kaylee.yanovich</t>
+          <t>ameliadelisle_</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>makena_vass</t>
+          <t>malloryvandenk</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>tjhoff33</t>
+          <t>wvubestbuddies</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>kim_conkl</t>
+          <t>carolwilsonddshwjzksa</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>nevaehswisher</t>
+          <t>alexacarreras</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>216.samii</t>
+          <t>addisonartzz</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>kylielyobe</t>
+          <t>loveelyssaa_</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>anna.w__04</t>
+          <t>joey.pohlman</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>johngonzalezjulanazskp</t>
+          <t>the_potential_kid11</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,10 +4168,410 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>hopern714</t>
+          <t>habte.geta</t>
         </is>
       </c>
       <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>parkrwhite</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>matthewt330</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>evan_west3</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>lexiihaukk</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>maddywaltr</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>taylor__burns</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>carlyschips</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>mikebrown2063</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>rp_0128</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>elliebeetel</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>charlie.wogisch</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ninakite</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>chanparker_1</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>whoisconnorr</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>briannaleightonn</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>alyssa.falzarano</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>laura9506roberts</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>_karascheb</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>marcellaxfrancesca</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>laura_greathouse_</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>gbeights</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>kyliehahnnn</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>kate.wagnerr</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>marrisjoe69</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>natalie_boyd.21</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>jackh_butler</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>lexileathery</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>edie_05_</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>maya.nonnenberg</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>eldritcheve</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>sfcncrane</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>_sophiamcnamara</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>alexis.re11</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>bryce.schell16</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>paula_toscano316</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>kenddaaallll</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>rymax011</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>mckenzie__robertson</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>krishna_rider_90rsb</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>brianwilsonlwxtaupriz</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
         <v>0</v>
       </c>
     </row>
